--- a/src/assets/files/TaxBuddy Cg Template.xlsx
+++ b/src/assets/files/TaxBuddy Cg Template.xlsx
@@ -44,7 +44,7 @@
     <t>YYYY-MM-DD</t>
   </si>
   <si>
-    <t>Taxpnl Statement for Equity from 2022-04-01 to 2023-03-31</t>
+    <t>Taxpnl Statement for Equity from 2023-04-01 to 2024-03-31</t>
   </si>
   <si>
     <t>Realized Profit Breakdown</t>
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -362,6 +362,9 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1841,7 +1844,7 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -1901,18 +1904,18 @@
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1928,29 +1931,29 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -1958,29 +1961,29 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
@@ -1988,27 +1991,27 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -2019,26 +2022,26 @@
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -2052,25 +2055,25 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -2078,29 +2081,29 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -2108,29 +2111,29 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
@@ -2138,29 +2141,29 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
@@ -2168,29 +2171,29 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
@@ -2198,29 +2201,29 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -2228,29 +2231,29 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
@@ -2258,29 +2261,29 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -2288,29 +2291,29 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
@@ -2318,29 +2321,29 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
@@ -2352,25 +2355,25 @@
         <v>24</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -2378,27 +2381,27 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
@@ -2409,26 +2412,26 @@
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
@@ -2436,29 +2439,29 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
@@ -2466,27 +2469,27 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -2494,29 +2497,29 @@
       <c r="Z27" s="9"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -2524,27 +2527,27 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -2552,21 +2555,21 @@
       <c r="Z29" s="9"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -2582,49 +2585,49 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -2632,21 +2635,21 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="K32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
@@ -2654,21 +2657,21 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="K33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
@@ -2676,21 +2679,21 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="K34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="K34" s="15"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
@@ -2698,21 +2701,21 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="K35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
@@ -2720,21 +2723,21 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="K36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="G36" s="16"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
@@ -2742,21 +2745,21 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="K37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="K37" s="15"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
@@ -2764,21 +2767,21 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="K38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
@@ -2786,21 +2789,21 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="G39" s="15"/>
-      <c r="K39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
@@ -2808,21 +2811,21 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="K40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
@@ -2830,21 +2833,21 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="K41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
@@ -2852,27 +2855,27 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
@@ -2880,27 +2883,27 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
@@ -2908,27 +2911,27 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
@@ -2936,29 +2939,29 @@
       <c r="Z44" s="9"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="11"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
@@ -2966,49 +2969,49 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="15" t="s">
         <v>41</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
@@ -3016,21 +3019,21 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="16"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="G47" s="15"/>
-      <c r="K47" s="11"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="G47" s="16"/>
+      <c r="K47" s="12"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
@@ -3038,21 +3041,21 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="16"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="G48" s="15"/>
-      <c r="K48" s="11"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="G48" s="16"/>
+      <c r="K48" s="12"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
@@ -3060,21 +3063,21 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="G49" s="15"/>
-      <c r="K49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="G49" s="16"/>
+      <c r="K49" s="12"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
@@ -3085,18 +3088,18 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="G50" s="15"/>
-      <c r="K50" s="11"/>
+      <c r="G50" s="16"/>
+      <c r="K50" s="12"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
@@ -3107,18 +3110,18 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="G51" s="15"/>
-      <c r="K51" s="11"/>
+      <c r="G51" s="16"/>
+      <c r="K51" s="12"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
@@ -3126,16 +3129,16 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="G52" s="15"/>
-      <c r="K52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
+      <c r="G52" s="16"/>
+      <c r="K52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
@@ -3146,18 +3149,18 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="G53" s="15"/>
-      <c r="K53" s="11"/>
+      <c r="G53" s="16"/>
+      <c r="K53" s="12"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
@@ -3168,18 +3171,18 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="G54" s="15"/>
-      <c r="K54" s="11"/>
+      <c r="G54" s="16"/>
+      <c r="K54" s="12"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
@@ -3190,18 +3193,18 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="G55" s="15"/>
-      <c r="K55" s="11"/>
+      <c r="G55" s="16"/>
+      <c r="K55" s="12"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
@@ -3212,10 +3215,10 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="G56" s="15"/>
-      <c r="K56" s="11"/>
+      <c r="G56" s="16"/>
+      <c r="K56" s="12"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="11"/>
+      <c r="M56" s="12"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
@@ -3234,8 +3237,8 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="G57" s="15"/>
-      <c r="K57" s="11"/>
+      <c r="G57" s="16"/>
+      <c r="K57" s="12"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -3256,8 +3259,8 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="G58" s="15"/>
-      <c r="K58" s="11"/>
+      <c r="G58" s="16"/>
+      <c r="K58" s="12"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -3278,8 +3281,8 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="G59" s="15"/>
-      <c r="K59" s="11"/>
+      <c r="G59" s="16"/>
+      <c r="K59" s="12"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -3300,8 +3303,8 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="G60" s="15"/>
-      <c r="K60" s="11"/>
+      <c r="G60" s="16"/>
+      <c r="K60" s="12"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -3322,8 +3325,8 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="G61" s="15"/>
-      <c r="K61" s="11"/>
+      <c r="G61" s="16"/>
+      <c r="K61" s="12"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -3344,8 +3347,8 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="G62" s="15"/>
-      <c r="K62" s="11"/>
+      <c r="G62" s="16"/>
+      <c r="K62" s="12"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -3366,8 +3369,8 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="G63" s="15"/>
-      <c r="K63" s="11"/>
+      <c r="G63" s="16"/>
+      <c r="K63" s="12"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -3388,8 +3391,8 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="G64" s="15"/>
-      <c r="K64" s="11"/>
+      <c r="G64" s="16"/>
+      <c r="K64" s="12"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -3410,8 +3413,8 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="G65" s="15"/>
-      <c r="K65" s="11"/>
+      <c r="G65" s="16"/>
+      <c r="K65" s="12"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -3432,8 +3435,8 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="G66" s="15"/>
-      <c r="K66" s="11"/>
+      <c r="G66" s="16"/>
+      <c r="K66" s="12"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -3454,8 +3457,8 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="G67" s="15"/>
-      <c r="K67" s="11"/>
+      <c r="G67" s="16"/>
+      <c r="K67" s="12"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -3476,8 +3479,8 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="G68" s="15"/>
-      <c r="K68" s="11"/>
+      <c r="G68" s="16"/>
+      <c r="K68" s="12"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -3498,8 +3501,8 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="G69" s="15"/>
-      <c r="K69" s="11"/>
+      <c r="G69" s="16"/>
+      <c r="K69" s="12"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -3520,8 +3523,8 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="G70" s="15"/>
-      <c r="K70" s="11"/>
+      <c r="G70" s="16"/>
+      <c r="K70" s="12"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -3542,8 +3545,8 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="G71" s="15"/>
-      <c r="K71" s="11"/>
+      <c r="G71" s="16"/>
+      <c r="K71" s="12"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -3564,8 +3567,8 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="G72" s="15"/>
-      <c r="K72" s="11"/>
+      <c r="G72" s="16"/>
+      <c r="K72" s="12"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -3586,8 +3589,8 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="G73" s="15"/>
-      <c r="K73" s="11"/>
+      <c r="G73" s="16"/>
+      <c r="K73" s="12"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -3608,8 +3611,8 @@
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="G74" s="15"/>
-      <c r="K74" s="11"/>
+      <c r="G74" s="16"/>
+      <c r="K74" s="12"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -3630,8 +3633,8 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="G75" s="15"/>
-      <c r="K75" s="11"/>
+      <c r="G75" s="16"/>
+      <c r="K75" s="12"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -3652,8 +3655,8 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="G76" s="15"/>
-      <c r="K76" s="11"/>
+      <c r="G76" s="16"/>
+      <c r="K76" s="12"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -3674,8 +3677,8 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="G77" s="15"/>
-      <c r="K77" s="11"/>
+      <c r="G77" s="16"/>
+      <c r="K77" s="12"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -3696,8 +3699,8 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="G78" s="15"/>
-      <c r="K78" s="11"/>
+      <c r="G78" s="16"/>
+      <c r="K78" s="12"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -3718,8 +3721,8 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="G79" s="15"/>
-      <c r="K79" s="11"/>
+      <c r="G79" s="16"/>
+      <c r="K79" s="12"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -3740,8 +3743,8 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="G80" s="15"/>
-      <c r="K80" s="11"/>
+      <c r="G80" s="16"/>
+      <c r="K80" s="12"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -3762,8 +3765,8 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="G81" s="15"/>
-      <c r="K81" s="11"/>
+      <c r="G81" s="16"/>
+      <c r="K81" s="12"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -10158,7 +10161,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -10186,7 +10189,7 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="4"/>
@@ -10219,7 +10222,7 @@
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -10246,7 +10249,7 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -10277,7 +10280,7 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -10304,10 +10307,10 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -10334,8 +10337,8 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -10365,7 +10368,7 @@
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -10424,10 +10427,10 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -10454,10 +10457,10 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -10484,10 +10487,10 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -10514,10 +10517,10 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -10544,10 +10547,10 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -10574,10 +10577,10 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -10604,10 +10607,10 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -10634,10 +10637,10 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10664,10 +10667,10 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -10724,8 +10727,8 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -10755,7 +10758,7 @@
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -10782,10 +10785,10 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -10812,8 +10815,8 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -10840,10 +10843,10 @@
       <c r="Z24" s="9"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -10898,19 +10901,19 @@
       <c r="Z26" s="9"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -10928,37 +10931,37 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="15" t="s">
         <v>47</v>
       </c>
       <c r="L28" s="4"/>
@@ -10979,16 +10982,16 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -11007,16 +11010,16 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -17381,32 +17384,32 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -17441,7 +17444,7 @@
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -17470,7 +17473,7 @@
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -17499,7 +17502,7 @@
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -17528,7 +17531,7 @@
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -17579,13 +17582,13 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="20"/>
+      <c r="Z8" s="21"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -17642,10 +17645,10 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -17671,10 +17674,10 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -17700,10 +17703,10 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -17729,10 +17732,10 @@
       <c r="Y13" s="4"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -17758,10 +17761,10 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -17787,10 +17790,10 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -17816,10 +17819,10 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -17845,10 +17848,10 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -17874,10 +17877,10 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -17932,8 +17935,8 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -17957,13 +17960,13 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="20"/>
+      <c r="Z21" s="21"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -17989,10 +17992,10 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -18018,8 +18021,8 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -18043,13 +18046,13 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="20"/>
+      <c r="Z24" s="21"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -18100,16 +18103,16 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="20"/>
+      <c r="Z26" s="21"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -18169,11 +18172,11 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -18196,11 +18199,11 @@
       <c r="Y29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -18221,16 +18224,16 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
-      <c r="Z30" s="20"/>
+      <c r="Z30" s="21"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -18290,11 +18293,11 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -18317,11 +18320,11 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -18342,16 +18345,16 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
-      <c r="Z34" s="20"/>
+      <c r="Z34" s="21"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -18411,11 +18414,11 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -18438,11 +18441,11 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -18463,16 +18466,16 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
-      <c r="Z38" s="20"/>
+      <c r="Z38" s="21"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -18532,11 +18535,11 @@
       <c r="Y40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -18559,11 +18562,11 @@
       <c r="Y41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -24723,35 +24726,35 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="4"/>
@@ -24851,13 +24854,13 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4"/>
@@ -24957,13 +24960,13 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4"/>
@@ -24989,10 +24992,10 @@
       <c r="V11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4"/>
@@ -25251,10 +25254,10 @@
       <c r="V21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -25299,13 +25302,13 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4"/>
@@ -25379,16 +25382,16 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -25433,13 +25436,13 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="4"/>
@@ -25465,25 +25468,25 @@
       <c r="V29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -25502,10 +25505,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -25526,10 +25529,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -25571,13 +25574,13 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="4"/>
@@ -25603,22 +25606,22 @@
       <c r="V34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="4"/>
@@ -25640,10 +25643,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -25664,10 +25667,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -25688,10 +25691,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -31235,35 +31238,35 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="4"/>
@@ -31381,7 +31384,7 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4"/>
@@ -31499,7 +31502,7 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4"/>
@@ -31529,10 +31532,10 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4"/>
@@ -31831,10 +31834,10 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -31889,7 +31892,7 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4"/>
@@ -31977,10 +31980,10 @@
       <c r="Z26" s="9"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -32035,7 +32038,7 @@
       <c r="Z28" s="9"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="4"/>
@@ -32065,22 +32068,22 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G30" s="4"/>
@@ -32189,7 +32192,7 @@
       <c r="Z33" s="9"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="4"/>
@@ -32219,22 +32222,22 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="4"/>
@@ -38655,35 +38658,35 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="4"/>
@@ -38801,7 +38804,7 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4"/>
@@ -38919,7 +38922,7 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4"/>
@@ -38949,10 +38952,10 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4"/>
@@ -39251,10 +39254,10 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -39309,7 +39312,7 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4"/>
@@ -39397,10 +39400,10 @@
       <c r="Z26" s="9"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -39455,7 +39458,7 @@
       <c r="Z28" s="9"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="4"/>
@@ -39488,19 +39491,19 @@
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G30" s="4"/>
@@ -39665,7 +39668,7 @@
       <c r="Z35" s="9"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="4"/>
@@ -39698,19 +39701,19 @@
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G37" s="4"/>
@@ -46131,8 +46134,8 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -46156,10 +46159,10 @@
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
-      <c r="Z2" s="20"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="4"/>
@@ -46188,19 +46191,19 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4"/>
@@ -46227,9 +46230,9 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -46254,9 +46257,9 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -46281,9 +46284,9 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -46308,9 +46311,9 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>

--- a/src/assets/files/TaxBuddy Cg Template.xlsx
+++ b/src/assets/files/TaxBuddy Cg Template.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
   <si>
     <t>Important Points to be considered before you proceed ahead.</t>
   </si>
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -392,6 +392,9 @@
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -2412,7 +2415,9 @@
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -10758,7 +10763,9 @@
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -17966,7 +17973,9 @@
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -25311,7 +25320,9 @@
       <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -25391,7 +25402,7 @@
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -31895,7 +31906,9 @@
       <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -31983,7 +31996,7 @@
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -39315,7 +39328,9 @@
       <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -39403,7 +39418,7 @@
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -46230,7 +46245,7 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="4"/>
@@ -46257,7 +46272,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="4"/>
@@ -46284,7 +46299,7 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -46311,7 +46326,7 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="4"/>
